--- a/biology/Botanique/Taurasi_riserva/Taurasi_riserva.xlsx
+++ b/biology/Botanique/Taurasi_riserva/Taurasi_riserva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Taurasi riserva est un vin rouge italien doté d'une appellation DOCG depuis le 26 mars 1970. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -514,7 +526,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province d'Avellino dans les communes Taurasi, Bonito, Castelfranci, Castelvetere sul Calore, Fontanarosa, Lapio, Luogosano, Mirabella Eclano, Montefalcione, Montemarano, Montemiletto, Paternopoli, Pietradefusi, Sant'Angelo all'Esca, San Mango sul Calore, Torre Le Nocelle et Venticano.
 </t>
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: rouge rubis intensif
 odeur: fruits rouges, caractéristique
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,7 +651,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
 </t>
@@ -662,7 +684,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel du vin Taurasi
  Portail de la vigne et du vin   Portail de la Campanie                    </t>
